--- a/ملفات مشروع هندسة البرمجيات2025/مرفق 4.xlsx
+++ b/ملفات مشروع هندسة البرمجيات2025/مرفق 4.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saeid\Desktop\هندسة برمجيات كلية\مشروع هندسة البرمجيات\ملفات مشروع هندسة البرمجيات2025\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9CFA20-0003-43EF-A640-BD8ECE7F8666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-30" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
     <sheet name="Instructions" sheetId="2" r:id="rId2"/>
     <sheet name="Monopoly Example" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
   <si>
     <t>Expected Outcome</t>
-  </si>
-  <si>
-    <t>Team Name In Black</t>
   </si>
   <si>
     <t>Test 
@@ -211,12 +214,147 @@
   <si>
     <t>Project #3</t>
   </si>
+  <si>
+    <t>تتبع موقع الكتاب us104</t>
+  </si>
+  <si>
+    <t>البحث عن كتاب us105</t>
+  </si>
+  <si>
+    <t>حجز مسبق للكتاب us106</t>
+  </si>
+  <si>
+    <t>اشعار انتهاء الإعارة us107</t>
+  </si>
+  <si>
+    <t>نفاذ نسخ الكتاب us108</t>
+  </si>
+  <si>
+    <t>تحليل البيانات us 109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الصلاحيات    us110     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">يجب ان يكون الشخص لديه حساب وتصريح دخول </t>
+  </si>
+  <si>
+    <t xml:space="preserve">يجب ان يكون مسجل دخول والكتاب متوفر منه نسخ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسجيل دخول ناجح لا يوجد كتاب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تم استعارة الكتاب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسجيل الارجاع  us103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسجيل الإعارة  us102   </t>
+  </si>
+  <si>
+    <t>تسجيل الإعارة  us101</t>
+  </si>
+  <si>
+    <t>تسجيل الدحول us100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مكان الكتاب موجود مسبقا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">وجود جدول يحتوي على أسماء الكتب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكتاب غير متوفر وان يكون المستخدم مسجل الدخول </t>
+  </si>
+  <si>
+    <t xml:space="preserve">وجود كتاب تم استعارته واقترب موعد الارجاع </t>
+  </si>
+  <si>
+    <t xml:space="preserve">وصول عدد الكتب للحد الأدنى المحدد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">وجود بيانات اعارة وارجاع والنسخ المتوفرة </t>
+  </si>
+  <si>
+    <t xml:space="preserve">وجود عدة أدوار ك طالب امين مكتية و محلل بيانات ....الخ </t>
+  </si>
+  <si>
+    <t>الدخول لصفحة تسجيل الدخول تعبئة بيانات الدخول تسجيل ناجح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فتح صفحة استعارة الكتاب مسح qr الكتاب او كتابة رقم تسلسلي وتسجيل الإعارة </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مسح كتاب او البحث عن كتاب غيرمتوفر في المخزن </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فتح صفحة الارجاع  تحديد الكتاب من قائمة الكتب المعارة وتسجيل تأكيد الارجاع </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فتح شاشة التتبع ادخل اسم الكتاب او رقمه واضغط بحث يقوم بعرض مكانه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فتح شاشة البحث ادخال اسم الكتاب او المؤلف  الضغط على بحث </t>
+  </si>
+  <si>
+    <t xml:space="preserve">من ناتج البحث اضغط بحث يقوم  بتاكيد الحجز ويضاف في قائمة الكتب المستعارة للطالب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارسال اشعار باقتراب وقت الارجاع </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فحص مخزون الكتب وارجاع تنبيه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فتح شاشة التقرير  اختيار فترة لعرض البيانات  وعرض التقرير </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الدخول الى لوحة التحكم وعرض اسم المستخدم </t>
+  </si>
+  <si>
+    <t>تم تسجيل الإعارة وعرض toast بنجاح العملية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكتاب غير متوفر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تم الارجاع بنجاح </t>
+  </si>
+  <si>
+    <t xml:space="preserve">عرض الرف الحالي للكتاب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">عرض الكتب الموجودة مع حالة التوفر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكتاب غير متوفر  وسنبلغك عند التوفر </t>
+  </si>
+  <si>
+    <t>ارسال اشعار للامين والطالب بان الموعد الارجاع اقترب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارسال اشعار للامين ان الكتب نفذت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">عرض تحليل لنسبة الإعارة والارجاع واكثر الكتب طلبا </t>
+  </si>
+  <si>
+    <t>الدخول الى شاشة المستخدمين او المستعيرين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ليس لديك صلاحية الوصول </t>
+  </si>
+  <si>
+    <t xml:space="preserve">عطية  أبو عبيد, محمدعيسى ,مهند البهتيني  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -384,21 +522,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -424,16 +555,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,10 +606,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -509,15 +639,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,14 +655,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -570,7 +703,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -642,7 +775,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -815,386 +948,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="117" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="47" t="s">
+    <row r="1" spans="1:6" ht="21">
+      <c r="A1" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" ht="27" thickBot="1">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="47"/>
-    </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="F2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" thickTop="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:6" ht="26.4">
+      <c r="A4" s="4">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <f t="shared" ref="A5:A31" si="0">A4+1</f>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="37"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <f t="shared" si="0"/>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.4">
+      <c r="A6" s="4">
+        <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <f t="shared" si="0"/>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="37"/>
+    </row>
+    <row r="7" spans="1:6" ht="26.4">
+      <c r="A7" s="4">
+        <f t="shared" ref="A7:A32" si="0">A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="37"/>
+    </row>
+    <row r="8" spans="1:6" ht="26.4">
+      <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="37"/>
+    </row>
+    <row r="9" spans="1:6" ht="26.4">
+      <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="38"/>
+    </row>
+    <row r="10" spans="1:6" ht="26.4">
+      <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="37"/>
+    </row>
+    <row r="11" spans="1:6" ht="26.4">
+      <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:6" ht="26.4">
+      <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" spans="1:6" ht="26.4">
+      <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <f>A31+1</f>
-        <v>30</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1212,97 +1223,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C17" sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="68.140625" customWidth="1"/>
+    <col min="2" max="2" width="68.109375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+    <row r="1" spans="2:2" ht="15.6">
+      <c r="B1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="10" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1314,241 +1325,232 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:6" ht="21">
+      <c r="A2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="15.6">
+      <c r="A5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="26.4">
+      <c r="A7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="B7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="D7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="19" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="52.8">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
-        <v>1</v>
-      </c>
-      <c r="B8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" ht="26.4">
+      <c r="A9" s="22">
+        <v>2</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
-        <v>2</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="27" t="s">
+      <c r="D9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="29" t="s">
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" ht="66">
+      <c r="A10" s="27">
+        <v>3</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
-        <v>3</v>
-      </c>
-      <c r="B10" s="32" t="s">
+      <c r="C10" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="D10" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="E10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="26.4">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="35"/>
-    </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23" t="s">
+      <c r="E11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" spans="1:6" ht="52.8">
+      <c r="A12" s="33">
+        <v>4</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="36"/>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="37">
-        <v>4</v>
-      </c>
-      <c r="B12" s="38" t="s">
+      <c r="C12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="D12" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="E12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" spans="1:6" ht="26.4">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="41"/>
-    </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="52.8">
+      <c r="A14" s="33">
+        <v>5</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="37">
-        <v>5</v>
-      </c>
-      <c r="B14" s="38" t="s">
+      <c r="D14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="1:6" ht="52.8">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="52.8">
+      <c r="A16" s="33">
+        <v>6</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="40" t="s">
+      <c r="D16" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" spans="1:6" ht="26.4">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="41"/>
-    </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
-        <v>6</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="43"/>
-    </row>
-    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="44"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="45"/>
+      <c r="F17" s="40"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
